--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_6_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_6_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Q0</t>
   </si>
@@ -37,91 +37,46 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>2010-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2017-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2017-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2017-07-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2017-10-01 00:00:00_diff</t>
@@ -506,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,25 +495,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1.21710077500531</v>
+        <v>0.04231489763667018</v>
       </c>
       <c r="C2">
-        <v>1.526390531396428</v>
+        <v>-1.112737948256028</v>
       </c>
       <c r="D2">
-        <v>0.37133768550373</v>
+        <v>0.426895895633562</v>
       </c>
       <c r="E2">
-        <v>1.91097152939332</v>
+        <v>0.1572417756599283</v>
       </c>
       <c r="F2">
-        <v>1.641317409419687</v>
+        <v>0.7087734795590415</v>
       </c>
       <c r="G2">
-        <v>2.1928491133188</v>
+        <v>0.482846718646189</v>
       </c>
       <c r="H2">
-        <v>1.966922352405947</v>
+        <v>0.5906624340427387</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -566,25 +521,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.04231489763667018</v>
+        <v>1.228061995268202</v>
       </c>
       <c r="C3">
-        <v>-1.112737948256028</v>
+        <v>0.9584078752945684</v>
       </c>
       <c r="D3">
-        <v>0.426895895633562</v>
+        <v>1.509939579193682</v>
       </c>
       <c r="E3">
-        <v>0.1572417756599283</v>
+        <v>1.284012818280829</v>
       </c>
       <c r="F3">
-        <v>0.7087734795590415</v>
+        <v>1.391828533677379</v>
       </c>
       <c r="G3">
-        <v>0.482846718646189</v>
+        <v>1.295428913013077</v>
       </c>
       <c r="H3">
-        <v>0.5906624340427387</v>
+        <v>1.798839798466086</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -592,25 +547,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-1.445957031217558</v>
+        <v>0.5137754236260815</v>
       </c>
       <c r="C4">
-        <v>0.09367681267203237</v>
+        <v>0.2878486627132291</v>
       </c>
       <c r="D4">
-        <v>-0.1759773073016014</v>
+        <v>0.3956643781097787</v>
       </c>
       <c r="E4">
-        <v>0.3755543965975118</v>
+        <v>0.299264757445477</v>
       </c>
       <c r="F4">
-        <v>0.1496276356846594</v>
+        <v>0.8026756428984855</v>
       </c>
       <c r="G4">
-        <v>0.257443351081209</v>
+        <v>1.061197584821935</v>
       </c>
       <c r="H4">
-        <v>0.1610437304169073</v>
+        <v>-0.6627850001563792</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -618,25 +573,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.228061995268202</v>
+        <v>0.4028038717171413</v>
       </c>
       <c r="C5">
-        <v>0.9584078752945684</v>
+        <v>0.3064042510528396</v>
       </c>
       <c r="D5">
-        <v>1.509939579193682</v>
+        <v>0.8098151365058481</v>
       </c>
       <c r="E5">
-        <v>1.284012818280829</v>
+        <v>1.068337078429297</v>
       </c>
       <c r="F5">
-        <v>1.391828533677379</v>
+        <v>-0.6556455065490165</v>
       </c>
       <c r="G5">
-        <v>1.295428913013077</v>
+        <v>-0.002006290186315263</v>
       </c>
       <c r="H5">
-        <v>1.798839798466086</v>
+        <v>0.3615376447221159</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -644,25 +599,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.4215520851831985</v>
+        <v>0.5336388157440486</v>
       </c>
       <c r="C6">
-        <v>0.1299796187159147</v>
+        <v>0.7921607576674977</v>
       </c>
       <c r="D6">
-        <v>-0.09594714219693778</v>
+        <v>-0.9318218273108161</v>
       </c>
       <c r="E6">
-        <v>0.01186857319961181</v>
+        <v>-0.2781826109481148</v>
       </c>
       <c r="F6">
-        <v>-0.0845310474646899</v>
+        <v>0.0853613239603164</v>
       </c>
       <c r="G6">
-        <v>0.4188798379883186</v>
+        <v>-0.8154145209193131</v>
       </c>
       <c r="H6">
-        <v>0.6774017799117678</v>
+        <v>0.2549610360343397</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -670,25 +625,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5137754236260815</v>
+        <v>-1.102517691576566</v>
       </c>
       <c r="C7">
-        <v>0.2878486627132291</v>
+        <v>-0.4488784752138651</v>
       </c>
       <c r="D7">
-        <v>0.3956643781097787</v>
+        <v>-0.08533454030543387</v>
       </c>
       <c r="E7">
-        <v>0.299264757445477</v>
+        <v>-0.9861103851850633</v>
       </c>
       <c r="F7">
-        <v>0.8026756428984855</v>
+        <v>0.08426517176858947</v>
       </c>
       <c r="G7">
-        <v>1.061197584821935</v>
+        <v>-0.4927947422478724</v>
       </c>
       <c r="H7">
-        <v>-0.6627850001563792</v>
+        <v>-0.6984007263408886</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -696,25 +651,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.3970372280610794</v>
+        <v>0.1737007515684039</v>
       </c>
       <c r="C8">
-        <v>-0.2892215126645298</v>
+        <v>-0.7270750933112256</v>
       </c>
       <c r="D8">
-        <v>-0.3856211333288315</v>
+        <v>0.3433004636424272</v>
       </c>
       <c r="E8">
-        <v>0.117789752124177</v>
+        <v>-0.2337594503740346</v>
       </c>
       <c r="F8">
-        <v>0.3763116940476261</v>
+        <v>-0.4393654344670508</v>
       </c>
       <c r="G8">
-        <v>-1.347670890930688</v>
+        <v>0.5397795472540464</v>
       </c>
       <c r="H8">
-        <v>-0.6940316745679864</v>
+        <v>-0.1965667960833156</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -722,25 +677,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4028038717171413</v>
+        <v>0.8389029408811082</v>
       </c>
       <c r="C9">
-        <v>0.3064042510528396</v>
+        <v>0.2618430268646463</v>
       </c>
       <c r="D9">
-        <v>0.8098151365058481</v>
+        <v>0.05623704277163011</v>
       </c>
       <c r="E9">
-        <v>1.068337078429297</v>
+        <v>1.035382024492727</v>
       </c>
       <c r="F9">
-        <v>-0.6556455065490165</v>
+        <v>0.2990356811553654</v>
       </c>
       <c r="G9">
-        <v>-0.002006290186315263</v>
+        <v>0.281065866501172</v>
       </c>
       <c r="H9">
-        <v>0.3615376447221159</v>
+        <v>0.3044707320415089</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -748,25 +703,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.06695590705021082</v>
+        <v>-0.6954484448595206</v>
       </c>
       <c r="C10">
-        <v>0.5703667925032193</v>
+        <v>0.2836965368615766</v>
       </c>
       <c r="D10">
-        <v>0.8288887344266684</v>
+        <v>-0.4526498064757853</v>
       </c>
       <c r="E10">
-        <v>-0.8950938505516454</v>
+        <v>-0.4706196211299787</v>
       </c>
       <c r="F10">
-        <v>-0.2414546341889441</v>
+        <v>-0.4472147555896419</v>
       </c>
       <c r="G10">
-        <v>0.1220893007194871</v>
+        <v>-0.8123891913563827</v>
       </c>
       <c r="H10">
-        <v>-0.7786865441601424</v>
+        <v>-0.1565696741854305</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -774,25 +729,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5336388157440486</v>
+        <v>-0.2465870357053012</v>
       </c>
       <c r="C11">
-        <v>0.7921607576674977</v>
+        <v>-0.2645568503594945</v>
       </c>
       <c r="D11">
-        <v>-0.9318218273108161</v>
+        <v>-0.2411519848191577</v>
       </c>
       <c r="E11">
-        <v>-0.2781826109481148</v>
+        <v>-0.6063264205858985</v>
       </c>
       <c r="F11">
-        <v>0.0853613239603164</v>
+        <v>0.04949309658505369</v>
       </c>
       <c r="G11">
-        <v>-0.8154145209193131</v>
+        <v>-0.08137778435637</v>
       </c>
       <c r="H11">
-        <v>0.2549610360343397</v>
+        <v>-0.1908955832804919</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -800,25 +755,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03433331671981776</v>
+        <v>-0.1975260465718366</v>
       </c>
       <c r="C12">
-        <v>-1.758315901698132</v>
+        <v>-0.5627004823385774</v>
       </c>
       <c r="D12">
-        <v>-1.10467668533543</v>
+        <v>0.09311903483237477</v>
       </c>
       <c r="E12">
-        <v>-0.7411327504269991</v>
+        <v>-0.03775184610904891</v>
       </c>
       <c r="F12">
-        <v>-1.641908595306629</v>
+        <v>-0.1472696450331708</v>
       </c>
       <c r="G12">
-        <v>-0.5715330383529758</v>
+        <v>-0.9770474321007241</v>
       </c>
       <c r="H12">
-        <v>-1.148592952369438</v>
+        <v>-0.3965216429320764</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -826,25 +781,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-1.102517691576566</v>
+        <v>0.4425040297996861</v>
       </c>
       <c r="C13">
-        <v>-0.4488784752138651</v>
+        <v>0.3116331488582624</v>
       </c>
       <c r="D13">
-        <v>-0.08533454030543387</v>
+        <v>0.2021153499341405</v>
       </c>
       <c r="E13">
-        <v>-0.9861103851850633</v>
+        <v>-0.6276624371334127</v>
       </c>
       <c r="F13">
-        <v>0.08426517176858947</v>
+        <v>-0.04713664796476502</v>
       </c>
       <c r="G13">
-        <v>-0.4927947422478724</v>
+        <v>-0.130522749394545</v>
       </c>
       <c r="H13">
-        <v>-0.6984007263408886</v>
+        <v>-0.3484326269343037</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -852,25 +807,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2092717645117558</v>
+        <v>-0.2720610750631522</v>
       </c>
       <c r="C14">
-        <v>0.572815699420187</v>
+        <v>-1.101838862130705</v>
       </c>
       <c r="D14">
-        <v>-0.3279601454594425</v>
+        <v>-0.5213130729620578</v>
       </c>
       <c r="E14">
-        <v>0.7424154114942103</v>
+        <v>-0.6046991743918377</v>
       </c>
       <c r="F14">
-        <v>0.1653554974777485</v>
+        <v>-0.8226090519315964</v>
       </c>
       <c r="G14">
-        <v>-0.04025048661526776</v>
+        <v>0.741168751704574</v>
       </c>
       <c r="H14">
-        <v>0.9388944951058295</v>
+        <v>-0.5948149543774897</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -878,25 +833,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1737007515684039</v>
+        <v>-0.1065518669046048</v>
       </c>
       <c r="C15">
-        <v>-0.7270750933112256</v>
+        <v>-0.1899379683343848</v>
       </c>
       <c r="D15">
-        <v>0.3433004636424272</v>
+        <v>-0.4078478458741435</v>
       </c>
       <c r="E15">
-        <v>-0.2337594503740346</v>
+        <v>1.155929957762027</v>
       </c>
       <c r="F15">
-        <v>-0.4393654344670508</v>
+        <v>-0.1800537483200367</v>
       </c>
       <c r="G15">
-        <v>0.5397795472540464</v>
+        <v>1.260560668210092</v>
       </c>
       <c r="H15">
-        <v>-0.1965667960833156</v>
+        <v>0.1601165539492688</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -904,25 +859,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.6656385511896482</v>
+        <v>-0.1895682054566924</v>
       </c>
       <c r="C16">
-        <v>0.4047370057640046</v>
+        <v>1.374209598179478</v>
       </c>
       <c r="D16">
-        <v>-0.1723229082524572</v>
+        <v>0.03822589209741434</v>
       </c>
       <c r="E16">
-        <v>-0.3779288923454734</v>
+        <v>1.478840308627543</v>
       </c>
       <c r="F16">
-        <v>0.6012160893756238</v>
+        <v>0.3783961943667199</v>
       </c>
       <c r="G16">
-        <v>-0.1351302539617382</v>
+        <v>0.16812179619705</v>
       </c>
       <c r="H16">
-        <v>-0.1531000686159315</v>
+        <v>0.7666659995807804</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -930,25 +885,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8389029408811082</v>
+        <v>1.157000698704573</v>
       </c>
       <c r="C17">
-        <v>0.2618430268646463</v>
+        <v>-0.1789830073774904</v>
       </c>
       <c r="D17">
-        <v>0.05623704277163011</v>
+        <v>1.261631409152638</v>
       </c>
       <c r="E17">
-        <v>1.035382024492727</v>
+        <v>0.1611872948918152</v>
       </c>
       <c r="F17">
-        <v>0.2990356811553654</v>
+        <v>-0.0490871032778547</v>
       </c>
       <c r="G17">
-        <v>0.281065866501172</v>
+        <v>0.5494571001058757</v>
       </c>
       <c r="H17">
-        <v>0.3044707320415089</v>
+        <v>0.2237884593306613</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -956,25 +911,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.7169583652144306</v>
+        <v>-0.4886691766355519</v>
       </c>
       <c r="C18">
-        <v>-0.9225643493074468</v>
+        <v>0.9519452398945764</v>
       </c>
       <c r="D18">
-        <v>0.05658063241365041</v>
+        <v>-0.1484988743662463</v>
       </c>
       <c r="E18">
-        <v>-0.6797657109237115</v>
+        <v>-0.3587732725359162</v>
       </c>
       <c r="F18">
-        <v>-0.6977355255779049</v>
+        <v>0.2397709308478142</v>
       </c>
       <c r="G18">
-        <v>-0.674330660037568</v>
+        <v>-0.0858977099274002</v>
       </c>
       <c r="H18">
-        <v>-1.039505095804309</v>
+        <v>0.6312820914482035</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -982,25 +937,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.6954484448595206</v>
+        <v>1.10624937372658</v>
       </c>
       <c r="C19">
-        <v>0.2836965368615766</v>
+        <v>0.005805259465757717</v>
       </c>
       <c r="D19">
-        <v>-0.4526498064757853</v>
+        <v>-0.2044691387039121</v>
       </c>
       <c r="E19">
-        <v>-0.4706196211299787</v>
+        <v>0.3940750646798182</v>
       </c>
       <c r="F19">
-        <v>-0.4472147555896419</v>
+        <v>0.06840642390460383</v>
       </c>
       <c r="G19">
-        <v>-0.8123891913563827</v>
-      </c>
-      <c r="H19">
-        <v>-0.1565696741854305</v>
+        <v>0.7855862252802075</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1008,25 +960,19 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.9171562662876651</v>
+        <v>-0.6446211617534254</v>
       </c>
       <c r="C20">
-        <v>0.1808099229503032</v>
+        <v>-0.8548955599230954</v>
       </c>
       <c r="D20">
-        <v>0.1628401082961098</v>
+        <v>-0.256351356539365</v>
       </c>
       <c r="E20">
-        <v>0.1862449738364467</v>
+        <v>-0.5820199973145794</v>
       </c>
       <c r="F20">
-        <v>-0.1789294619302941</v>
-      </c>
-      <c r="G20">
-        <v>0.476890055240658</v>
-      </c>
-      <c r="H20">
-        <v>0.3460191742992343</v>
+        <v>0.1351598040610243</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1034,25 +980,16 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.2465870357053012</v>
+        <v>-0.6387305113048862</v>
       </c>
       <c r="C21">
-        <v>-0.2645568503594945</v>
+        <v>-0.04018630792115581</v>
       </c>
       <c r="D21">
-        <v>-0.2411519848191577</v>
+        <v>-0.3658549486963703</v>
       </c>
       <c r="E21">
-        <v>-0.6063264205858985</v>
-      </c>
-      <c r="F21">
-        <v>0.04949309658505369</v>
-      </c>
-      <c r="G21">
-        <v>-0.08137778435637</v>
-      </c>
-      <c r="H21">
-        <v>-0.1908955832804919</v>
+        <v>0.3513248526792334</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1060,25 +997,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.09821989567134759</v>
+        <v>0.3668428211138005</v>
       </c>
       <c r="C22">
-        <v>-0.07481503013101076</v>
+        <v>0.04117418033858611</v>
       </c>
       <c r="D22">
-        <v>-0.4399894658977516</v>
-      </c>
-      <c r="E22">
-        <v>0.2158300512732006</v>
-      </c>
-      <c r="F22">
-        <v>0.08495917033177691</v>
-      </c>
-      <c r="G22">
-        <v>-0.02455862859234498</v>
-      </c>
-      <c r="H22">
-        <v>-0.8543364156598983</v>
+        <v>0.7583539817141898</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1086,25 +1011,10 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.1975260465718366</v>
+        <v>-0.4578680368388337</v>
       </c>
       <c r="C23">
-        <v>-0.5627004823385774</v>
-      </c>
-      <c r="D23">
-        <v>0.09311903483237477</v>
-      </c>
-      <c r="E23">
-        <v>-0.03775184610904891</v>
-      </c>
-      <c r="F23">
-        <v>-0.1472696450331708</v>
-      </c>
-      <c r="G23">
-        <v>-0.9770474321007241</v>
-      </c>
-      <c r="H23">
-        <v>-0.3965216429320764</v>
+        <v>0.25931176453677</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1112,351 +1022,6 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.6099342188937177</v>
-      </c>
-      <c r="C24">
-        <v>0.04588529827723448</v>
-      </c>
-      <c r="D24">
-        <v>-0.08498558266418921</v>
-      </c>
-      <c r="E24">
-        <v>-0.1945033815883111</v>
-      </c>
-      <c r="F24">
-        <v>-1.024281168655864</v>
-      </c>
-      <c r="G24">
-        <v>-0.4437553794872167</v>
-      </c>
-      <c r="H24">
-        <v>-0.5271414809169966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.4425040297996861</v>
-      </c>
-      <c r="C25">
-        <v>0.3116331488582624</v>
-      </c>
-      <c r="D25">
-        <v>0.2021153499341405</v>
-      </c>
-      <c r="E25">
-        <v>-0.6276624371334127</v>
-      </c>
-      <c r="F25">
-        <v>-0.04713664796476502</v>
-      </c>
-      <c r="G25">
-        <v>-0.130522749394545</v>
-      </c>
-      <c r="H25">
-        <v>-0.3484326269343037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.05758111373454233</v>
-      </c>
-      <c r="C26">
-        <v>-0.05193668518957956</v>
-      </c>
-      <c r="D26">
-        <v>-0.8817144722571328</v>
-      </c>
-      <c r="E26">
-        <v>-0.3011886830884851</v>
-      </c>
-      <c r="F26">
-        <v>-0.3845747845182651</v>
-      </c>
-      <c r="G26">
-        <v>-0.6024846620580238</v>
-      </c>
-      <c r="H26">
-        <v>0.9612931415781466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>-0.2720610750631522</v>
-      </c>
-      <c r="C27">
-        <v>-1.101838862130705</v>
-      </c>
-      <c r="D27">
-        <v>-0.5213130729620578</v>
-      </c>
-      <c r="E27">
-        <v>-0.6046991743918377</v>
-      </c>
-      <c r="F27">
-        <v>-0.8226090519315964</v>
-      </c>
-      <c r="G27">
-        <v>0.741168751704574</v>
-      </c>
-      <c r="H27">
-        <v>-0.5948149543774897</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>-0.8660504135440372</v>
-      </c>
-      <c r="C28">
-        <v>-0.2855246243753896</v>
-      </c>
-      <c r="D28">
-        <v>-0.3689107258051695</v>
-      </c>
-      <c r="E28">
-        <v>-0.5868206033449281</v>
-      </c>
-      <c r="F28">
-        <v>0.9769572002912421</v>
-      </c>
-      <c r="G28">
-        <v>-0.3590265057908215</v>
-      </c>
-      <c r="H28">
-        <v>1.081587910739307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-0.1065518669046048</v>
-      </c>
-      <c r="C29">
-        <v>-0.1899379683343848</v>
-      </c>
-      <c r="D29">
-        <v>-0.4078478458741435</v>
-      </c>
-      <c r="E29">
-        <v>1.155929957762027</v>
-      </c>
-      <c r="F29">
-        <v>-0.1800537483200367</v>
-      </c>
-      <c r="G29">
-        <v>1.260560668210092</v>
-      </c>
-      <c r="H29">
-        <v>0.1601165539492688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>-0.1793774380750638</v>
-      </c>
-      <c r="C30">
-        <v>-0.3972873156148224</v>
-      </c>
-      <c r="D30">
-        <v>1.166490488021348</v>
-      </c>
-      <c r="E30">
-        <v>-0.1694932180607157</v>
-      </c>
-      <c r="F30">
-        <v>1.271121198469412</v>
-      </c>
-      <c r="G30">
-        <v>0.1706770842085898</v>
-      </c>
-      <c r="H30">
-        <v>-0.03959731396108002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>-0.1895682054566924</v>
-      </c>
-      <c r="C31">
-        <v>1.374209598179478</v>
-      </c>
-      <c r="D31">
-        <v>0.03822589209741434</v>
-      </c>
-      <c r="E31">
-        <v>1.478840308627543</v>
-      </c>
-      <c r="F31">
-        <v>0.3783961943667199</v>
-      </c>
-      <c r="G31">
-        <v>0.16812179619705</v>
-      </c>
-      <c r="H31">
-        <v>0.7666659995807804</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>1.157000698704573</v>
-      </c>
-      <c r="C32">
-        <v>-0.1789830073774904</v>
-      </c>
-      <c r="D32">
-        <v>1.261631409152638</v>
-      </c>
-      <c r="E32">
-        <v>0.1611872948918152</v>
-      </c>
-      <c r="F32">
-        <v>-0.0490871032778547</v>
-      </c>
-      <c r="G32">
-        <v>0.5494571001058757</v>
-      </c>
-      <c r="H32">
-        <v>0.2237884593306613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>-0.4886691766355519</v>
-      </c>
-      <c r="C33">
-        <v>0.9519452398945764</v>
-      </c>
-      <c r="D33">
-        <v>-0.1484988743662463</v>
-      </c>
-      <c r="E33">
-        <v>-0.3587732725359162</v>
-      </c>
-      <c r="F33">
-        <v>0.2397709308478142</v>
-      </c>
-      <c r="G33">
-        <v>-0.0858977099274002</v>
-      </c>
-      <c r="H33">
-        <v>0.6312820914482035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>1.10624937372658</v>
-      </c>
-      <c r="C34">
-        <v>0.005805259465757717</v>
-      </c>
-      <c r="D34">
-        <v>-0.2044691387039121</v>
-      </c>
-      <c r="E34">
-        <v>0.3940750646798182</v>
-      </c>
-      <c r="F34">
-        <v>0.06840642390460383</v>
-      </c>
-      <c r="G34">
-        <v>0.7855862252802075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>-0.6446211617534254</v>
-      </c>
-      <c r="C35">
-        <v>-0.8548955599230954</v>
-      </c>
-      <c r="D35">
-        <v>-0.256351356539365</v>
-      </c>
-      <c r="E35">
-        <v>-0.5820199973145794</v>
-      </c>
-      <c r="F35">
-        <v>0.1351598040610243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>-0.6387305113048862</v>
-      </c>
-      <c r="C36">
-        <v>-0.04018630792115581</v>
-      </c>
-      <c r="D36">
-        <v>-0.3658549486963703</v>
-      </c>
-      <c r="E36">
-        <v>0.3513248526792334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.3668428211138005</v>
-      </c>
-      <c r="C37">
-        <v>0.04117418033858611</v>
-      </c>
-      <c r="D37">
-        <v>0.7583539817141898</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>-0.4578680368388337</v>
-      </c>
-      <c r="C38">
-        <v>0.25931176453677</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
         <v>0.4181606776922825</v>
       </c>
     </row>
